--- a/Code/Results/Cases/Case_1_165/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_165/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.69104720190404</v>
+        <v>17.04695337284734</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.807996106229318</v>
+        <v>9.437467674464822</v>
       </c>
       <c r="E2">
-        <v>9.247176570468511</v>
+        <v>15.39472393693095</v>
       </c>
       <c r="F2">
-        <v>24.16966993082725</v>
+        <v>36.14610799108036</v>
       </c>
       <c r="G2">
-        <v>2.105898251171856</v>
+        <v>3.674760059667096</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.856343968691101</v>
+        <v>11.39301999968659</v>
       </c>
       <c r="K2">
-        <v>12.73417820805753</v>
+        <v>10.19176106570954</v>
       </c>
       <c r="L2">
-        <v>6.543877939656182</v>
+        <v>9.237302152776941</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.79489997523741</v>
+        <v>21.13380495858535</v>
       </c>
       <c r="O2">
-        <v>17.6336992912514</v>
+        <v>27.17288645156798</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.07319297839205</v>
+        <v>16.9528335583414</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.73668597714791</v>
+        <v>9.443665523333333</v>
       </c>
       <c r="E3">
-        <v>9.304091764185806</v>
+        <v>15.43063691350818</v>
       </c>
       <c r="F3">
-        <v>23.95540512809225</v>
+        <v>36.21458280853332</v>
       </c>
       <c r="G3">
-        <v>2.110705720460667</v>
+        <v>3.676629297140562</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.914553775968837</v>
+        <v>11.41533253785539</v>
       </c>
       <c r="K3">
-        <v>11.98020223346675</v>
+        <v>9.976267810906858</v>
       </c>
       <c r="L3">
-        <v>6.273773821791264</v>
+        <v>9.202724197122031</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.9992000006757</v>
+        <v>21.19588656612919</v>
       </c>
       <c r="O3">
-        <v>17.56940233716818</v>
+        <v>27.23825118037559</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68420641442556</v>
+        <v>16.89787549928091</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.694605938923819</v>
+        <v>9.448594303626768</v>
       </c>
       <c r="E4">
-        <v>9.342223675154635</v>
+        <v>15.45425446794267</v>
       </c>
       <c r="F4">
-        <v>23.84062537246666</v>
+        <v>36.26379712474428</v>
       </c>
       <c r="G4">
-        <v>2.113755179017909</v>
+        <v>3.677839038701456</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.951605941593487</v>
+        <v>11.42978225410541</v>
       </c>
       <c r="K4">
-        <v>11.49227498971385</v>
+        <v>9.843136988507098</v>
       </c>
       <c r="L4">
-        <v>6.103895284497055</v>
+        <v>9.182625483786726</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.12758106910464</v>
+        <v>21.23580761379689</v>
       </c>
       <c r="O4">
-        <v>17.54252604861709</v>
+        <v>27.28341373867755</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.52349944565636</v>
+        <v>16.87621050910846</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.677898708719649</v>
+        <v>9.4508859451338</v>
       </c>
       <c r="E5">
-        <v>9.358552417937801</v>
+        <v>15.46427349496342</v>
       </c>
       <c r="F5">
-        <v>23.79799926767365</v>
+        <v>36.28565355641388</v>
       </c>
       <c r="G5">
-        <v>2.115022894845327</v>
+        <v>3.678347662376914</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.967037624590761</v>
+        <v>11.43585966744405</v>
       </c>
       <c r="K5">
-        <v>11.28719771628707</v>
+        <v>9.78875522744829</v>
       </c>
       <c r="L5">
-        <v>6.033751462216876</v>
+        <v>9.174725380468596</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.18065725880418</v>
+        <v>21.25253039550657</v>
       </c>
       <c r="O5">
-        <v>17.53465204029236</v>
+        <v>27.30308086938874</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.49668906365513</v>
+        <v>16.8726577247456</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.675151439874282</v>
+        <v>9.451283588980633</v>
       </c>
       <c r="E6">
-        <v>9.361311164174978</v>
+        <v>15.46596100480155</v>
       </c>
       <c r="F6">
-        <v>23.79116945270588</v>
+        <v>36.2893915261543</v>
       </c>
       <c r="G6">
-        <v>2.115234923972283</v>
+        <v>3.678433065238796</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.969620218583616</v>
+        <v>11.43688024971309</v>
       </c>
       <c r="K6">
-        <v>11.25276919564328</v>
+        <v>9.77971958697105</v>
       </c>
       <c r="L6">
-        <v>6.022051831394011</v>
+        <v>9.173431263780513</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.18951699914524</v>
+        <v>21.25533469837555</v>
       </c>
       <c r="O6">
-        <v>17.53352777349969</v>
+        <v>27.30642282130482</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.68204761472744</v>
+        <v>16.89758033437188</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.694378819585079</v>
+        <v>9.448624062294151</v>
       </c>
       <c r="E7">
-        <v>9.342440707585094</v>
+        <v>15.4543879890702</v>
       </c>
       <c r="F7">
-        <v>23.8400338103913</v>
+        <v>36.26408459800617</v>
       </c>
       <c r="G7">
-        <v>2.113772173880509</v>
+        <v>3.677845834771223</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.951812708017307</v>
+        <v>11.42986345014152</v>
       </c>
       <c r="K7">
-        <v>11.48953445999697</v>
+        <v>9.842404001351243</v>
       </c>
       <c r="L7">
-        <v>6.102952875656174</v>
+        <v>9.1825177577403</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.12829376988583</v>
+        <v>21.23603130053503</v>
       </c>
       <c r="O7">
-        <v>17.54240751527974</v>
+        <v>27.28367386451597</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.4801350208548</v>
+        <v>17.01392466161737</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.783062065705822</v>
+        <v>9.439371969526759</v>
       </c>
       <c r="E8">
-        <v>9.266132710313121</v>
+        <v>15.40678194662973</v>
       </c>
       <c r="F8">
-        <v>24.09226852190001</v>
+        <v>36.16822884015064</v>
       </c>
       <c r="G8">
-        <v>2.10753589460649</v>
+        <v>3.675391729084486</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.87614437720695</v>
+        <v>11.40055806534373</v>
       </c>
       <c r="K8">
-        <v>12.47941121705433</v>
+        <v>10.11767319082579</v>
       </c>
       <c r="L8">
-        <v>6.45163790541389</v>
+        <v>9.225148085565102</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.86474509579069</v>
+        <v>21.15483735253488</v>
       </c>
       <c r="O8">
-        <v>17.6088606253437</v>
+        <v>27.19437977459022</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.96038928503843</v>
+        <v>17.2636760782134</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.969930769375359</v>
+        <v>9.430110886655719</v>
       </c>
       <c r="E9">
-        <v>9.142308087344768</v>
+        <v>15.32582802067256</v>
       </c>
       <c r="F9">
-        <v>24.72278286795139</v>
+        <v>36.03722277636246</v>
       </c>
       <c r="G9">
-        <v>2.096058560043339</v>
+        <v>3.6710691570647</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.73802522198001</v>
+        <v>11.34901567047783</v>
       </c>
       <c r="K9">
-        <v>14.2213636278514</v>
+        <v>10.64780129922915</v>
       </c>
       <c r="L9">
-        <v>7.099729573141603</v>
+        <v>9.317474504105268</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.37027223839068</v>
+        <v>21.00985814488675</v>
       </c>
       <c r="O9">
-        <v>17.84303991262791</v>
+        <v>27.05923040850213</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.98693805905594</v>
+        <v>17.45911335772434</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.114336949786107</v>
+        <v>9.428678974133874</v>
       </c>
       <c r="E10">
-        <v>9.067853168459143</v>
+        <v>15.27386901990352</v>
       </c>
       <c r="F10">
-        <v>25.27199264305616</v>
+        <v>35.97578135055628</v>
       </c>
       <c r="G10">
-        <v>2.088051097146825</v>
+        <v>3.668188961288628</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.642611785915308</v>
+        <v>11.31472697259383</v>
       </c>
       <c r="K10">
-        <v>15.37933300265807</v>
+        <v>11.02733312550062</v>
       </c>
       <c r="L10">
-        <v>7.632435430727775</v>
+        <v>9.390269494020769</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.01915651446773</v>
+        <v>20.91193645222554</v>
       </c>
       <c r="O10">
-        <v>18.0834293159083</v>
+        <v>26.98436792143038</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.43924809210886</v>
+        <v>17.55034023761887</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.181403171349836</v>
+        <v>9.42918398902699</v>
       </c>
       <c r="E11">
-        <v>9.037751175860761</v>
+        <v>15.25185500923744</v>
       </c>
       <c r="F11">
-        <v>25.54101040574862</v>
+        <v>35.95539754960836</v>
       </c>
       <c r="G11">
-        <v>2.084492751799443</v>
+        <v>3.666942219228384</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.600478862839315</v>
+        <v>11.29989845470368</v>
       </c>
       <c r="K11">
-        <v>15.87977779463111</v>
+        <v>11.19704288218792</v>
       </c>
       <c r="L11">
-        <v>7.878406161377109</v>
+        <v>9.424382144694833</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.86172911219636</v>
+        <v>20.8692368499825</v>
       </c>
       <c r="O11">
-        <v>18.20861685270828</v>
+        <v>26.9556288204852</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.60832487035333</v>
+        <v>17.58519509987576</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.206982598421666</v>
+        <v>9.429540554552652</v>
       </c>
       <c r="E12">
-        <v>9.026910346444678</v>
+        <v>15.24375149261192</v>
       </c>
       <c r="F12">
-        <v>25.64566836235915</v>
+        <v>35.94876669606217</v>
       </c>
       <c r="G12">
-        <v>2.083156741329182</v>
+        <v>3.666479188414355</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.584703514767811</v>
+        <v>11.29439342404699</v>
       </c>
       <c r="K12">
-        <v>16.0655160401887</v>
+        <v>11.26082420556669</v>
       </c>
       <c r="L12">
-        <v>7.969744637388184</v>
+        <v>9.437435981743949</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.80241632174648</v>
+        <v>20.85333161609925</v>
       </c>
       <c r="O12">
-        <v>18.25837376343655</v>
+        <v>26.94551127621183</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.57201042818006</v>
+        <v>17.57767512555325</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.201465709151639</v>
+        <v>9.429456424725471</v>
       </c>
       <c r="E13">
-        <v>9.029220020360677</v>
+        <v>15.24548638931996</v>
       </c>
       <c r="F13">
-        <v>25.62300405383549</v>
+        <v>35.95014638201599</v>
       </c>
       <c r="G13">
-        <v>2.083443976489343</v>
+        <v>3.666578507098433</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.58809308938727</v>
+        <v>11.29557413664267</v>
       </c>
       <c r="K13">
-        <v>16.02568131142437</v>
+        <v>11.24711021581189</v>
       </c>
       <c r="L13">
-        <v>7.950153416942414</v>
+        <v>9.434618669914109</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.81517745733691</v>
+        <v>20.85674536231507</v>
       </c>
       <c r="O13">
-        <v>18.24755201395764</v>
+        <v>26.94765622040898</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.45320276114585</v>
+        <v>17.55320171341006</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.183504024376433</v>
+        <v>9.42921001618965</v>
       </c>
       <c r="E14">
-        <v>9.036848011728345</v>
+        <v>15.2511836675142</v>
       </c>
       <c r="F14">
-        <v>25.54956468174967</v>
+        <v>35.95483022058264</v>
       </c>
       <c r="G14">
-        <v>2.08438261172465</v>
+        <v>3.666903943611952</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.599177437683871</v>
+        <v>11.29944334640712</v>
       </c>
       <c r="K14">
-        <v>15.89513402279839</v>
+        <v>11.20230024733935</v>
       </c>
       <c r="L14">
-        <v>7.885956765470844</v>
+        <v>9.425453406636571</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.85684354058366</v>
+        <v>20.86792302909895</v>
       </c>
       <c r="O14">
-        <v>18.2126628520654</v>
+        <v>26.95478110140651</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.38014027630607</v>
+        <v>17.53825057351779</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.172525358341971</v>
+        <v>9.429080584844584</v>
       </c>
       <c r="E15">
-        <v>9.041593562416852</v>
+        <v>15.25470370344604</v>
       </c>
       <c r="F15">
-        <v>25.50494462838161</v>
+        <v>35.95784089638659</v>
       </c>
       <c r="G15">
-        <v>2.0849590246842</v>
+        <v>3.667104464492093</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.605990194781319</v>
+        <v>11.30182768783611</v>
       </c>
       <c r="K15">
-        <v>15.81467973337178</v>
+        <v>11.1747880618362</v>
       </c>
       <c r="L15">
-        <v>7.846399604633823</v>
+        <v>9.419856922633423</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.88240360762505</v>
+        <v>20.87480404129388</v>
       </c>
       <c r="O15">
-        <v>18.19160055605358</v>
+        <v>26.95924498766871</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.95707485521283</v>
+        <v>17.45319608865576</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.109980410768047</v>
+        <v>9.428669159041721</v>
       </c>
       <c r="E16">
-        <v>9.069897600061113</v>
+        <v>15.27534028377164</v>
       </c>
       <c r="F16">
-        <v>25.25480022670023</v>
+        <v>35.97726574506054</v>
       </c>
       <c r="G16">
-        <v>2.088285283717088</v>
+        <v>3.668271712287578</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.645390568201558</v>
+        <v>11.31571149784522</v>
       </c>
       <c r="K16">
-        <v>15.3460992949512</v>
+        <v>11.01617769003554</v>
       </c>
       <c r="L16">
-        <v>7.61610761789054</v>
+        <v>9.388059605422868</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.02948856736553</v>
+        <v>20.91476400457038</v>
       </c>
       <c r="O16">
-        <v>18.07557306227578</v>
+        <v>26.98635314328483</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.69370718386398</v>
+        <v>17.4015951574746</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.071952675309164</v>
+        <v>9.428712278148804</v>
       </c>
       <c r="E17">
-        <v>9.088237606068429</v>
+        <v>15.28841527335832</v>
       </c>
       <c r="F17">
-        <v>25.10627935285969</v>
+        <v>35.99112032046609</v>
       </c>
       <c r="G17">
-        <v>2.090346964937177</v>
+        <v>3.669004006608234</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.669884650615273</v>
+        <v>11.32442554700914</v>
       </c>
       <c r="K17">
-        <v>15.05190789403569</v>
+        <v>10.91807726287014</v>
       </c>
       <c r="L17">
-        <v>7.47160765258401</v>
+        <v>9.368803369390214</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.12028880697784</v>
+        <v>20.93974996069478</v>
       </c>
       <c r="O17">
-        <v>18.00850334202726</v>
+        <v>27.00434540367684</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.54084828902797</v>
+        <v>17.37213568226795</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.05021043868015</v>
+        <v>9.42884598600706</v>
       </c>
       <c r="E18">
-        <v>9.099139919340137</v>
+        <v>15.2960884043482</v>
       </c>
       <c r="F18">
-        <v>25.02265802507072</v>
+        <v>35.9998012999019</v>
       </c>
       <c r="G18">
-        <v>2.091540765136952</v>
+        <v>3.669431179963597</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.684092845300323</v>
+        <v>11.32951010147138</v>
       </c>
       <c r="K18">
-        <v>14.88021791823373</v>
+        <v>10.86137905413709</v>
       </c>
       <c r="L18">
-        <v>7.387308725243918</v>
+        <v>9.357822067584584</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.17273271882638</v>
+        <v>20.95429499669902</v>
       </c>
       <c r="O18">
-        <v>17.97141272437628</v>
+        <v>27.01519442370102</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.48885960524121</v>
+        <v>17.36219973961493</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.042871728466732</v>
+        <v>9.428909990409629</v>
       </c>
       <c r="E19">
-        <v>9.102891507817137</v>
+        <v>15.29871264634866</v>
       </c>
       <c r="F19">
-        <v>24.99465414111944</v>
+        <v>36.00286284180068</v>
       </c>
       <c r="G19">
-        <v>2.091946354774594</v>
+        <v>3.669576841431813</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.688924179504808</v>
+        <v>11.33124410400878</v>
       </c>
       <c r="K19">
-        <v>14.82166052615472</v>
+        <v>10.84213698153153</v>
       </c>
       <c r="L19">
-        <v>7.358562666606218</v>
+        <v>9.354120418095532</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.19052761844367</v>
+        <v>20.95924957865148</v>
       </c>
       <c r="O19">
-        <v>17.95910739066258</v>
+        <v>27.01895362133125</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.721886352664</v>
+        <v>17.40706557058477</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.075987414379041</v>
+        <v>9.428696423384174</v>
       </c>
       <c r="E20">
-        <v>9.086248566622441</v>
+        <v>15.28700761436602</v>
       </c>
       <c r="F20">
-        <v>25.12190272549632</v>
+        <v>35.98957176610936</v>
       </c>
       <c r="G20">
-        <v>2.090126674676688</v>
+        <v>3.668925434347483</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.667264833883728</v>
+        <v>11.32349042519409</v>
       </c>
       <c r="K20">
-        <v>15.08348153097889</v>
+        <v>10.9285489764471</v>
       </c>
       <c r="L20">
-        <v>7.487112671517883</v>
+        <v>9.370843513841413</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.11060060538873</v>
+        <v>20.93707218666134</v>
       </c>
       <c r="O20">
-        <v>18.01548867063576</v>
+        <v>27.00237830586892</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.48815989428252</v>
+        <v>17.56038195396931</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.188774959273055</v>
+        <v>9.42927791335744</v>
       </c>
       <c r="E21">
-        <v>9.034592203569504</v>
+        <v>15.24950392774591</v>
       </c>
       <c r="F21">
-        <v>25.5710597702537</v>
+        <v>35.95342493628635</v>
       </c>
       <c r="G21">
-        <v>2.084106606326809</v>
+        <v>3.666808108849168</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.595916851677211</v>
+        <v>11.29830387834157</v>
       </c>
       <c r="K21">
-        <v>15.93358106847746</v>
+        <v>11.21547562597791</v>
       </c>
       <c r="L21">
-        <v>7.904861806360421</v>
+        <v>9.428141832143927</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.84459725571134</v>
+        <v>20.86463271716137</v>
       </c>
       <c r="O21">
-        <v>18.22284626316388</v>
+        <v>26.952667574373</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.97609207671767</v>
+        <v>17.66237374233011</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.263547635269904</v>
+        <v>9.430621118781014</v>
       </c>
       <c r="E22">
-        <v>9.004093264386178</v>
+        <v>15.22634925115707</v>
       </c>
       <c r="F22">
-        <v>25.88086323384461</v>
+        <v>35.936142569597</v>
       </c>
       <c r="G22">
-        <v>2.08023859097577</v>
+        <v>3.665477238749727</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.550331361772618</v>
+        <v>11.28248517692655</v>
       </c>
       <c r="K22">
-        <v>16.46721129458422</v>
+        <v>11.40015173816912</v>
       </c>
       <c r="L22">
-        <v>8.167367644144786</v>
+        <v>9.466379440491878</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.6724917340839</v>
+        <v>20.8188286249585</v>
       </c>
       <c r="O22">
-        <v>18.37210232109494</v>
+        <v>26.92463993066402</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.71687712447096</v>
+        <v>17.60778320224231</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.223547916064579</v>
+        <v>9.429816427130811</v>
       </c>
       <c r="E23">
-        <v>9.020067076189077</v>
+        <v>15.23858344301901</v>
       </c>
       <c r="F23">
-        <v>25.71401989316783</v>
+        <v>35.9447863369363</v>
       </c>
       <c r="G23">
-        <v>2.082297173230911</v>
+        <v>3.666182721032427</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.574566729802364</v>
+        <v>11.29086930771553</v>
       </c>
       <c r="K23">
-        <v>16.18440526458327</v>
+        <v>11.30186626427439</v>
       </c>
       <c r="L23">
-        <v>8.028222723934645</v>
+        <v>9.445901521063945</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.76419816110705</v>
+        <v>20.8431346785629</v>
       </c>
       <c r="O23">
-        <v>18.29116114716946</v>
+        <v>26.93919037565772</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.70915104497702</v>
+        <v>17.40459175145058</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.074162932649219</v>
+        <v>9.428703251997794</v>
       </c>
       <c r="E24">
-        <v>9.087146696246126</v>
+        <v>15.28764353058694</v>
       </c>
       <c r="F24">
-        <v>25.11483390243832</v>
+        <v>35.99026963787084</v>
       </c>
       <c r="G24">
-        <v>2.090226241340206</v>
+        <v>3.66896093765164</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.668448859629855</v>
+        <v>11.32391296095256</v>
       </c>
       <c r="K24">
-        <v>15.0692150503935</v>
+        <v>10.92381564125224</v>
       </c>
       <c r="L24">
-        <v>7.48010666529029</v>
+        <v>9.369920885616429</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.11497988650562</v>
+        <v>20.9382822466484</v>
       </c>
       <c r="O24">
-        <v>18.0123260347023</v>
+        <v>27.00326605770694</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.57008188472923</v>
+        <v>17.19392228906021</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.918070072661349</v>
+        <v>9.431669539896188</v>
       </c>
       <c r="E25">
-        <v>9.172964139145614</v>
+        <v>15.34640494574998</v>
       </c>
       <c r="F25">
-        <v>24.53730717287338</v>
+        <v>36.0665547973481</v>
       </c>
       <c r="G25">
-        <v>2.099086334045315</v>
+        <v>3.672186396715794</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.77431107204932</v>
+        <v>11.36232830566291</v>
       </c>
       <c r="K25">
-        <v>13.77152597168445</v>
+        <v>10.50585536624161</v>
       </c>
       <c r="L25">
-        <v>6.928690053335311</v>
+        <v>9.291599303529228</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.50179303699725</v>
+        <v>21.04756327844712</v>
       </c>
       <c r="O25">
-        <v>17.76803467026547</v>
+        <v>27.09150609901124</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_165/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_165/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.04695337284734</v>
+        <v>13.69104720190402</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.437467674464822</v>
+        <v>5.80799610622915</v>
       </c>
       <c r="E2">
-        <v>15.39472393693095</v>
+        <v>9.247176570468383</v>
       </c>
       <c r="F2">
-        <v>36.14610799108036</v>
+        <v>24.16966993082696</v>
       </c>
       <c r="G2">
-        <v>3.674760059667096</v>
+        <v>2.10589825117199</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.39301999968659</v>
+        <v>6.856343968691029</v>
       </c>
       <c r="K2">
-        <v>10.19176106570954</v>
+        <v>12.73417820805763</v>
       </c>
       <c r="L2">
-        <v>9.237302152776941</v>
+        <v>6.54387793965608</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.13380495858535</v>
+        <v>13.79489997523731</v>
       </c>
       <c r="O2">
-        <v>27.17288645156798</v>
+        <v>17.63369929125119</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.9528335583414</v>
+        <v>13.07319297839203</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.443665523333333</v>
+        <v>5.736685977147864</v>
       </c>
       <c r="E3">
-        <v>15.43063691350818</v>
+        <v>9.304091764185875</v>
       </c>
       <c r="F3">
-        <v>36.21458280853332</v>
+        <v>23.95540512809189</v>
       </c>
       <c r="G3">
-        <v>3.676629297140562</v>
+        <v>2.110705720460399</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.41533253785539</v>
+        <v>6.914553775968839</v>
       </c>
       <c r="K3">
-        <v>9.976267810906858</v>
+        <v>11.98020223346682</v>
       </c>
       <c r="L3">
-        <v>9.202724197122031</v>
+        <v>6.273773821791267</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.19588656612919</v>
+        <v>13.99920000067553</v>
       </c>
       <c r="O3">
-        <v>27.23825118037559</v>
+        <v>17.56940233716794</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.89787549928091</v>
+        <v>12.68420641442555</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.448594303626768</v>
+        <v>5.694605938923769</v>
       </c>
       <c r="E4">
-        <v>15.45425446794267</v>
+        <v>9.342223675154644</v>
       </c>
       <c r="F4">
-        <v>36.26379712474428</v>
+        <v>23.84062537246655</v>
       </c>
       <c r="G4">
-        <v>3.677839038701456</v>
+        <v>2.113755179018045</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.42978225410541</v>
+        <v>6.951605941593554</v>
       </c>
       <c r="K4">
-        <v>9.843136988507098</v>
+        <v>11.49227498971385</v>
       </c>
       <c r="L4">
-        <v>9.182625483786726</v>
+        <v>6.103895284497087</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.23580761379689</v>
+        <v>14.1275810691046</v>
       </c>
       <c r="O4">
-        <v>27.28341373867755</v>
+        <v>17.54252604861706</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.87621050910846</v>
+        <v>12.52349944565634</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.4508859451338</v>
+        <v>5.677898708719584</v>
       </c>
       <c r="E5">
-        <v>15.46427349496342</v>
+        <v>9.358552417937743</v>
       </c>
       <c r="F5">
-        <v>36.28565355641388</v>
+        <v>23.79799926767356</v>
       </c>
       <c r="G5">
-        <v>3.678347662376914</v>
+        <v>2.115022894845194</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.43585966744405</v>
+        <v>6.967037624590729</v>
       </c>
       <c r="K5">
-        <v>9.78875522744829</v>
+        <v>11.28719771628711</v>
       </c>
       <c r="L5">
-        <v>9.174725380468596</v>
+        <v>6.033751462216835</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.25253039550657</v>
+        <v>14.18065725880415</v>
       </c>
       <c r="O5">
-        <v>27.30308086938874</v>
+        <v>17.53465204029229</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.8726577247456</v>
+        <v>12.49668906365509</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.451283588980633</v>
+        <v>5.675151439874277</v>
       </c>
       <c r="E6">
-        <v>15.46596100480155</v>
+        <v>9.361311164175047</v>
       </c>
       <c r="F6">
-        <v>36.2893915261543</v>
+        <v>23.79116945270567</v>
       </c>
       <c r="G6">
-        <v>3.678433065238796</v>
+        <v>2.115234923972281</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.43688024971309</v>
+        <v>6.969620218583652</v>
       </c>
       <c r="K6">
-        <v>9.77971958697105</v>
+        <v>11.25276919564337</v>
       </c>
       <c r="L6">
-        <v>9.173431263780513</v>
+        <v>6.022051831393942</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.25533469837555</v>
+        <v>14.1895169991452</v>
       </c>
       <c r="O6">
-        <v>27.30642282130482</v>
+        <v>17.53352777349951</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.89758033437188</v>
+        <v>12.6820476147274</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.448624062294151</v>
+        <v>5.694378819585013</v>
       </c>
       <c r="E7">
-        <v>15.4543879890702</v>
+        <v>9.34244070758503</v>
       </c>
       <c r="F7">
-        <v>36.26408459800617</v>
+        <v>23.84003381039117</v>
       </c>
       <c r="G7">
-        <v>3.677845834771223</v>
+        <v>2.113772173880912</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.42986345014152</v>
+        <v>6.951812708017275</v>
       </c>
       <c r="K7">
-        <v>9.842404001351243</v>
+        <v>11.48953445999702</v>
       </c>
       <c r="L7">
-        <v>9.1825177577403</v>
+        <v>6.10295287565621</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.23603130053503</v>
+        <v>14.12829376988576</v>
       </c>
       <c r="O7">
-        <v>27.28367386451597</v>
+        <v>17.54240751527963</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.01392466161737</v>
+        <v>13.4801350208547</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.439371969526759</v>
+        <v>5.783062065705822</v>
       </c>
       <c r="E8">
-        <v>15.40678194662973</v>
+        <v>9.266132710313052</v>
       </c>
       <c r="F8">
-        <v>36.16822884015064</v>
+        <v>24.09226852189971</v>
       </c>
       <c r="G8">
-        <v>3.675391729084486</v>
+        <v>2.107535894606488</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.40055806534373</v>
+        <v>6.876144377206916</v>
       </c>
       <c r="K8">
-        <v>10.11767319082579</v>
+        <v>12.4794112170544</v>
       </c>
       <c r="L8">
-        <v>9.225148085565102</v>
+        <v>6.451637905413819</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.15483735253488</v>
+        <v>13.86474509579062</v>
       </c>
       <c r="O8">
-        <v>27.19437977459022</v>
+        <v>17.6088606253435</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.2636760782134</v>
+        <v>14.96038928503843</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.430110886655719</v>
+        <v>5.969930769375465</v>
       </c>
       <c r="E9">
-        <v>15.32582802067256</v>
+        <v>9.142308087344835</v>
       </c>
       <c r="F9">
-        <v>36.03722277636246</v>
+        <v>24.72278286795129</v>
       </c>
       <c r="G9">
-        <v>3.6710691570647</v>
+        <v>2.096058560043472</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.34901567047783</v>
+        <v>6.73802522198001</v>
       </c>
       <c r="K9">
-        <v>10.64780129922915</v>
+        <v>14.22136362785142</v>
       </c>
       <c r="L9">
-        <v>9.317474504105268</v>
+        <v>7.099729573141593</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.00985814488675</v>
+        <v>13.37027223839058</v>
       </c>
       <c r="O9">
-        <v>27.05923040850213</v>
+        <v>17.84303991262777</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.45911335772434</v>
+        <v>15.98693805905588</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.428678974133874</v>
+        <v>6.114336949786055</v>
       </c>
       <c r="E10">
-        <v>15.27386901990352</v>
+        <v>9.067853168459136</v>
       </c>
       <c r="F10">
-        <v>35.97578135055628</v>
+        <v>25.27199264305586</v>
       </c>
       <c r="G10">
-        <v>3.668188961288628</v>
+        <v>2.08805109714669</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.31472697259383</v>
+        <v>6.642611785915306</v>
       </c>
       <c r="K10">
-        <v>11.02733312550062</v>
+        <v>15.37933300265817</v>
       </c>
       <c r="L10">
-        <v>9.390269494020769</v>
+        <v>7.63243543072782</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.91193645222554</v>
+        <v>13.0191565144677</v>
       </c>
       <c r="O10">
-        <v>26.98436792143038</v>
+        <v>18.08342931590811</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.55034023761887</v>
+        <v>16.43924809210885</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.42918398902699</v>
+        <v>6.181403171349916</v>
       </c>
       <c r="E11">
-        <v>15.25185500923744</v>
+        <v>9.037751175860818</v>
       </c>
       <c r="F11">
-        <v>35.95539754960836</v>
+        <v>25.54101040574866</v>
       </c>
       <c r="G11">
-        <v>3.666942219228384</v>
+        <v>2.084492751799575</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.29989845470368</v>
+        <v>6.600478862839318</v>
       </c>
       <c r="K11">
-        <v>11.19704288218792</v>
+        <v>15.8797777946311</v>
       </c>
       <c r="L11">
-        <v>9.424382144694833</v>
+        <v>7.87840616137707</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.8692368499825</v>
+        <v>12.86172911219639</v>
       </c>
       <c r="O11">
-        <v>26.9556288204852</v>
+        <v>18.20861685270829</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.58519509987576</v>
+        <v>16.60832487035331</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.429540554552652</v>
+        <v>6.206982598421676</v>
       </c>
       <c r="E12">
-        <v>15.24375149261192</v>
+        <v>9.026910346444804</v>
       </c>
       <c r="F12">
-        <v>35.94876669606217</v>
+        <v>25.6456683623589</v>
       </c>
       <c r="G12">
-        <v>3.666479188414355</v>
+        <v>2.083156741329317</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.29439342404699</v>
+        <v>6.584703514767906</v>
       </c>
       <c r="K12">
-        <v>11.26082420556669</v>
+        <v>16.06551604018879</v>
       </c>
       <c r="L12">
-        <v>9.437435981743949</v>
+        <v>7.969744637388149</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.85333161609925</v>
+        <v>12.80241632174638</v>
       </c>
       <c r="O12">
-        <v>26.94551127621183</v>
+        <v>18.25837376343634</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.57767512555325</v>
+        <v>16.57201042818008</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.429456424725471</v>
+        <v>6.201465709151691</v>
       </c>
       <c r="E13">
-        <v>15.24548638931996</v>
+        <v>9.029220020360924</v>
       </c>
       <c r="F13">
-        <v>35.95014638201599</v>
+        <v>25.62300405383542</v>
       </c>
       <c r="G13">
-        <v>3.666578507098433</v>
+        <v>2.083443976489478</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.29557413664267</v>
+        <v>6.588093089387467</v>
       </c>
       <c r="K13">
-        <v>11.24711021581189</v>
+        <v>16.02568131142442</v>
       </c>
       <c r="L13">
-        <v>9.434618669914109</v>
+        <v>7.950153416942377</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.85674536231507</v>
+        <v>12.81517745733681</v>
       </c>
       <c r="O13">
-        <v>26.94765622040898</v>
+        <v>18.24755201395755</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.55320171341006</v>
+        <v>16.45320276114584</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.42921001618965</v>
+        <v>6.183504024376547</v>
       </c>
       <c r="E14">
-        <v>15.2511836675142</v>
+        <v>9.036848011728466</v>
       </c>
       <c r="F14">
-        <v>35.95483022058264</v>
+        <v>25.54956468174953</v>
       </c>
       <c r="G14">
-        <v>3.666903943611952</v>
+        <v>2.084382611724647</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.29944334640712</v>
+        <v>6.599177437683807</v>
       </c>
       <c r="K14">
-        <v>11.20230024733935</v>
+        <v>15.89513402279846</v>
       </c>
       <c r="L14">
-        <v>9.425453406636571</v>
+        <v>7.885956765470927</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.86792302909895</v>
+        <v>12.85684354058359</v>
       </c>
       <c r="O14">
-        <v>26.95478110140651</v>
+        <v>18.21266285206522</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.53825057351779</v>
+        <v>16.38014027630607</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.429080584844584</v>
+        <v>6.172525358341938</v>
       </c>
       <c r="E15">
-        <v>15.25470370344604</v>
+        <v>9.041593562416798</v>
       </c>
       <c r="F15">
-        <v>35.95784089638659</v>
+        <v>25.50494462838152</v>
       </c>
       <c r="G15">
-        <v>3.667104464492093</v>
+        <v>2.0849590246842</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.30182768783611</v>
+        <v>6.605990194781257</v>
       </c>
       <c r="K15">
-        <v>11.1747880618362</v>
+        <v>15.81467973337184</v>
       </c>
       <c r="L15">
-        <v>9.419856922633423</v>
+        <v>7.846399604633871</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.87480404129388</v>
+        <v>12.88240360762502</v>
       </c>
       <c r="O15">
-        <v>26.95924498766871</v>
+        <v>18.19160055605349</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.45319608865576</v>
+        <v>15.95707485521284</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.428669159041721</v>
+        <v>6.109980410768154</v>
       </c>
       <c r="E16">
-        <v>15.27534028377164</v>
+        <v>9.069897600061063</v>
       </c>
       <c r="F16">
-        <v>35.97726574506054</v>
+        <v>25.25480022670025</v>
       </c>
       <c r="G16">
-        <v>3.668271712287578</v>
+        <v>2.088285283716955</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.31571149784522</v>
+        <v>6.645390568201459</v>
       </c>
       <c r="K16">
-        <v>11.01617769003554</v>
+        <v>15.34609929495118</v>
       </c>
       <c r="L16">
-        <v>9.388059605422868</v>
+        <v>7.616107617890552</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.91476400457038</v>
+        <v>13.02948856736543</v>
       </c>
       <c r="O16">
-        <v>26.98635314328483</v>
+        <v>18.07557306227577</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.4015951574746</v>
+        <v>15.693707183864</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.428712278148804</v>
+        <v>6.071952675309165</v>
       </c>
       <c r="E17">
-        <v>15.28841527335832</v>
+        <v>9.08823760606843</v>
       </c>
       <c r="F17">
-        <v>35.99112032046609</v>
+        <v>25.10627935285963</v>
       </c>
       <c r="G17">
-        <v>3.669004006608234</v>
+        <v>2.090346964937176</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.32442554700914</v>
+        <v>6.66988465061524</v>
       </c>
       <c r="K17">
-        <v>10.91807726287014</v>
+        <v>15.05190789403574</v>
       </c>
       <c r="L17">
-        <v>9.368803369390214</v>
+        <v>7.471607652584122</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93974996069478</v>
+        <v>13.12028880697784</v>
       </c>
       <c r="O17">
-        <v>27.00434540367684</v>
+        <v>18.0085033420272</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.37213568226795</v>
+        <v>15.54084828902797</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.42884598600706</v>
+        <v>6.050210438680069</v>
       </c>
       <c r="E18">
-        <v>15.2960884043482</v>
+        <v>9.099139919340017</v>
       </c>
       <c r="F18">
-        <v>35.9998012999019</v>
+        <v>25.02265802507068</v>
       </c>
       <c r="G18">
-        <v>3.669431179963597</v>
+        <v>2.091540765136551</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.32951010147138</v>
+        <v>6.684092845300286</v>
       </c>
       <c r="K18">
-        <v>10.86137905413709</v>
+        <v>14.88021791823374</v>
       </c>
       <c r="L18">
-        <v>9.357822067584584</v>
+        <v>7.387308725243989</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.95429499669902</v>
+        <v>13.17273271882638</v>
       </c>
       <c r="O18">
-        <v>27.01519442370102</v>
+        <v>17.97141272437628</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.36219973961493</v>
+        <v>15.48885960524124</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.428909990409629</v>
+        <v>6.042871728466646</v>
       </c>
       <c r="E19">
-        <v>15.29871264634866</v>
+        <v>9.10289150781721</v>
       </c>
       <c r="F19">
-        <v>36.00286284180068</v>
+        <v>24.99465414111945</v>
       </c>
       <c r="G19">
-        <v>3.669576841431813</v>
+        <v>2.091946354774592</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.33124410400878</v>
+        <v>6.68892417950491</v>
       </c>
       <c r="K19">
-        <v>10.84213698153153</v>
+        <v>14.82166052615469</v>
       </c>
       <c r="L19">
-        <v>9.354120418095532</v>
+        <v>7.358562666606196</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.95924957865148</v>
+        <v>13.19052761844367</v>
       </c>
       <c r="O19">
-        <v>27.01895362133125</v>
+        <v>17.9591073906626</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.40706557058477</v>
+        <v>15.72188635266401</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.428696423384174</v>
+        <v>6.075987414379089</v>
       </c>
       <c r="E20">
-        <v>15.28700761436602</v>
+        <v>9.08624856662251</v>
       </c>
       <c r="F20">
-        <v>35.98957176610936</v>
+        <v>25.12190272549628</v>
       </c>
       <c r="G20">
-        <v>3.668925434347483</v>
+        <v>2.090126674676553</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.32349042519409</v>
+        <v>6.667264833883695</v>
       </c>
       <c r="K20">
-        <v>10.9285489764471</v>
+        <v>15.08348153097893</v>
       </c>
       <c r="L20">
-        <v>9.370843513841413</v>
+        <v>7.487112671517937</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.93707218666134</v>
+        <v>13.11060060538873</v>
       </c>
       <c r="O20">
-        <v>27.00237830586892</v>
+        <v>18.01548867063569</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.56038195396931</v>
+        <v>16.48815989428251</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.42927791335744</v>
+        <v>6.188774959273057</v>
       </c>
       <c r="E21">
-        <v>15.24950392774591</v>
+        <v>9.034592203569565</v>
       </c>
       <c r="F21">
-        <v>35.95342493628635</v>
+        <v>25.57105977025361</v>
       </c>
       <c r="G21">
-        <v>3.666808108849168</v>
+        <v>2.084106606326677</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.29830387834157</v>
+        <v>6.595916851677276</v>
       </c>
       <c r="K21">
-        <v>11.21547562597791</v>
+        <v>15.93358106847753</v>
       </c>
       <c r="L21">
-        <v>9.428141832143927</v>
+        <v>7.90486180636041</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.86463271716137</v>
+        <v>12.84459725571131</v>
       </c>
       <c r="O21">
-        <v>26.952667574373</v>
+        <v>18.2228462631638</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.66237374233011</v>
+        <v>16.97609207671766</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.430621118781014</v>
+        <v>6.263547635270007</v>
       </c>
       <c r="E22">
-        <v>15.22634925115707</v>
+        <v>9.004093264386293</v>
       </c>
       <c r="F22">
-        <v>35.936142569597</v>
+        <v>25.88086323384463</v>
       </c>
       <c r="G22">
-        <v>3.665477238749727</v>
+        <v>2.080238590975771</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.28248517692655</v>
+        <v>6.550331361772652</v>
       </c>
       <c r="K22">
-        <v>11.40015173816912</v>
+        <v>16.46721129458425</v>
       </c>
       <c r="L22">
-        <v>9.466379440491878</v>
+        <v>8.167367644144822</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.8188286249585</v>
+        <v>12.67249173408393</v>
       </c>
       <c r="O22">
-        <v>26.92463993066402</v>
+        <v>18.37210232109491</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.60778320224231</v>
+        <v>16.71687712447094</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.429816427130811</v>
+        <v>6.223547916064493</v>
       </c>
       <c r="E23">
-        <v>15.23858344301901</v>
+        <v>9.020067076189015</v>
       </c>
       <c r="F23">
-        <v>35.9447863369363</v>
+        <v>25.71401989316769</v>
       </c>
       <c r="G23">
-        <v>3.666182721032427</v>
+        <v>2.082297173230909</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.29086930771553</v>
+        <v>6.574566729802332</v>
       </c>
       <c r="K23">
-        <v>11.30186626427439</v>
+        <v>16.18440526458329</v>
       </c>
       <c r="L23">
-        <v>9.445901521063945</v>
+        <v>8.0282227239347</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.8431346785629</v>
+        <v>12.76419816110695</v>
       </c>
       <c r="O23">
-        <v>26.93919037565772</v>
+        <v>18.29116114716936</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.40459175145058</v>
+        <v>15.70915104497698</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.428703251997794</v>
+        <v>6.074162932649283</v>
       </c>
       <c r="E24">
-        <v>15.28764353058694</v>
+        <v>9.087146696246005</v>
       </c>
       <c r="F24">
-        <v>35.99026963787084</v>
+        <v>25.11483390243815</v>
       </c>
       <c r="G24">
-        <v>3.66896093765164</v>
+        <v>2.090226241340205</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.32391296095256</v>
+        <v>6.668448859629857</v>
       </c>
       <c r="K24">
-        <v>10.92381564125224</v>
+        <v>15.0692150503935</v>
       </c>
       <c r="L24">
-        <v>9.369920885616429</v>
+        <v>7.480106665290273</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.9382822466484</v>
+        <v>13.11497988650552</v>
       </c>
       <c r="O24">
-        <v>27.00326605770694</v>
+        <v>18.01232603470216</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.19392228906021</v>
+        <v>14.57008188472921</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.431669539896188</v>
+        <v>5.918070072661349</v>
       </c>
       <c r="E25">
-        <v>15.34640494574998</v>
+        <v>9.172964139145426</v>
       </c>
       <c r="F25">
-        <v>36.0665547973481</v>
+        <v>24.53730717287315</v>
       </c>
       <c r="G25">
-        <v>3.672186396715794</v>
+        <v>2.099086334045581</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.36232830566291</v>
+        <v>6.77431107204922</v>
       </c>
       <c r="K25">
-        <v>10.50585536624161</v>
+        <v>13.77152597168451</v>
       </c>
       <c r="L25">
-        <v>9.291599303529228</v>
+        <v>6.928690053335269</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.04756327844712</v>
+        <v>13.50179303699715</v>
       </c>
       <c r="O25">
-        <v>27.09150609901124</v>
+        <v>17.76803467026528</v>
       </c>
     </row>
   </sheetData>
